--- a/Datasets/TestSets/test1/six-way.xlsx
+++ b/Datasets/TestSets/test1/six-way.xlsx
@@ -216,13 +216,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,13 +235,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -690,28 +684,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,125 +717,123 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1195,7 +1190,7 @@
   <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="J1" sqref="H$1:H$1048576 J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1266,8 +1261,8 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>6.3</v>
+      <c r="H2" s="3">
+        <v>8.1</v>
       </c>
       <c r="I2">
         <v>-6.35</v>
@@ -1310,7 +1305,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>-3.6</v>
       </c>
       <c r="I3">
@@ -1354,8 +1349,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>6.9</v>
+      <c r="H4" s="3">
+        <v>8.1</v>
       </c>
       <c r="I4">
         <v>2.3</v>
@@ -1398,8 +1393,8 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>6.6</v>
+      <c r="H5" s="3">
+        <v>8.1</v>
       </c>
       <c r="I5">
         <v>-14.24</v>
@@ -1442,8 +1437,8 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>6.3</v>
+      <c r="H6" s="3">
+        <v>8.1</v>
       </c>
       <c r="I6">
         <v>-0.8</v>
@@ -1486,8 +1481,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>6</v>
+      <c r="H7" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I7">
         <v>-0.34</v>
@@ -1530,8 +1525,8 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>6.9</v>
+      <c r="H8" s="3">
+        <v>8.1</v>
       </c>
       <c r="I8">
         <v>-22.75</v>
@@ -1574,8 +1569,8 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>6.6</v>
+      <c r="H9" s="3">
+        <v>8.1</v>
       </c>
       <c r="I9">
         <v>0.05</v>
@@ -1618,8 +1613,8 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>6.6</v>
+      <c r="H10" s="3">
+        <v>8.1</v>
       </c>
       <c r="I10">
         <v>4.06</v>
@@ -1662,8 +1657,8 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>6.9</v>
+      <c r="H11" s="3">
+        <v>8.1</v>
       </c>
       <c r="I11">
         <v>-2.59</v>
@@ -1706,7 +1701,7 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>-3.5</v>
       </c>
       <c r="I12">
@@ -1750,8 +1745,8 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>6.3</v>
+      <c r="H13" s="3">
+        <v>8.1</v>
       </c>
       <c r="I13">
         <v>1.1</v>
@@ -1794,8 +1789,8 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>6.9</v>
+      <c r="H14" s="3">
+        <v>8.1</v>
       </c>
       <c r="I14">
         <v>-22.75</v>
@@ -1838,8 +1833,8 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15">
-        <v>6.6</v>
+      <c r="H15" s="3">
+        <v>8.1</v>
       </c>
       <c r="I15">
         <v>0.05</v>
@@ -1882,8 +1877,8 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>6.6</v>
+      <c r="H16" s="3">
+        <v>8.1</v>
       </c>
       <c r="I16">
         <v>4.06</v>
@@ -1926,8 +1921,8 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>6.9</v>
+      <c r="H17" s="3">
+        <v>8.1</v>
       </c>
       <c r="I17">
         <v>-11.47</v>
@@ -1970,7 +1965,7 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>-3.5</v>
       </c>
       <c r="I18">
@@ -2014,8 +2009,8 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>6.3</v>
+      <c r="H19" s="3">
+        <v>8.1</v>
       </c>
       <c r="I19">
         <v>1.1</v>
@@ -2058,8 +2053,8 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>6.9</v>
+      <c r="H20" s="3">
+        <v>8.1</v>
       </c>
       <c r="I20">
         <v>-22.75</v>
@@ -2102,8 +2097,8 @@
       <c r="G21">
         <v>2</v>
       </c>
-      <c r="H21">
-        <v>6.6</v>
+      <c r="H21" s="3">
+        <v>8.1</v>
       </c>
       <c r="I21">
         <v>0.05</v>
@@ -2146,8 +2141,8 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>6.6</v>
+      <c r="H22" s="3">
+        <v>8.1</v>
       </c>
       <c r="I22">
         <v>4.06</v>
@@ -2190,8 +2185,8 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>6.9</v>
+      <c r="H23" s="3">
+        <v>8.1</v>
       </c>
       <c r="I23">
         <v>-17.25</v>
@@ -2234,7 +2229,7 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>-3.5</v>
       </c>
       <c r="I24">
@@ -2278,8 +2273,8 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>6.3</v>
+      <c r="H25" s="3">
+        <v>8.1</v>
       </c>
       <c r="I25">
         <v>1.1</v>
@@ -2322,8 +2317,8 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>6.9</v>
+      <c r="H26" s="3">
+        <v>8.1</v>
       </c>
       <c r="I26">
         <v>-22.75</v>
@@ -2366,8 +2361,8 @@
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27">
-        <v>6.6</v>
+      <c r="H27" s="3">
+        <v>8.1</v>
       </c>
       <c r="I27">
         <v>0.05</v>
@@ -2410,8 +2405,8 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>6.6</v>
+      <c r="H28" s="3">
+        <v>8.1</v>
       </c>
       <c r="I28">
         <v>4.06</v>
@@ -2454,8 +2449,8 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>6.9</v>
+      <c r="H29" s="3">
+        <v>8.1</v>
       </c>
       <c r="I29">
         <v>-11.47</v>
@@ -2498,7 +2493,7 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>-3.5</v>
       </c>
       <c r="I30">
@@ -2542,8 +2537,8 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>6.3</v>
+      <c r="H31" s="3">
+        <v>8.1</v>
       </c>
       <c r="I31">
         <v>1.1</v>
@@ -2586,8 +2581,8 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>6</v>
+      <c r="H32" s="3">
+        <v>8.1</v>
       </c>
       <c r="I32">
         <v>4.06</v>
@@ -2630,8 +2625,8 @@
       <c r="G33">
         <v>2</v>
       </c>
-      <c r="H33">
-        <v>6.6</v>
+      <c r="H33" s="3">
+        <v>8.1</v>
       </c>
       <c r="I33">
         <v>-7.54</v>
@@ -2674,8 +2669,8 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>6.3</v>
+      <c r="H34" s="3">
+        <v>8.66190818614259</v>
       </c>
       <c r="I34">
         <v>2.43</v>
@@ -2718,7 +2713,7 @@
       <c r="G35">
         <v>3</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>-3.6</v>
       </c>
       <c r="I35">
@@ -2762,8 +2757,8 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>6.3</v>
+      <c r="H36" s="3">
+        <v>8.1</v>
       </c>
       <c r="I36">
         <v>1.1</v>
@@ -2806,8 +2801,8 @@
       <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37">
-        <v>6.6</v>
+      <c r="H37" s="3">
+        <v>8.1</v>
       </c>
       <c r="I37">
         <v>-9.29</v>
@@ -2850,8 +2845,8 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>6.9</v>
+      <c r="H38" s="3">
+        <v>8.1</v>
       </c>
       <c r="I38">
         <v>-22.75</v>
@@ -2894,8 +2889,8 @@
       <c r="G39">
         <v>2</v>
       </c>
-      <c r="H39">
-        <v>6.6</v>
+      <c r="H39" s="3">
+        <v>8.1</v>
       </c>
       <c r="I39">
         <v>0.05</v>
@@ -2938,8 +2933,8 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>6.6</v>
+      <c r="H40" s="3">
+        <v>8.1</v>
       </c>
       <c r="I40">
         <v>4.06</v>
@@ -2982,8 +2977,8 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>6.9</v>
+      <c r="H41" s="3">
+        <v>8.1</v>
       </c>
       <c r="I41">
         <v>-14.89</v>
@@ -3026,7 +3021,7 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>-3.5</v>
       </c>
       <c r="I42">
@@ -3070,8 +3065,8 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>6.3</v>
+      <c r="H43" s="3">
+        <v>8.1</v>
       </c>
       <c r="I43">
         <v>1.1</v>
@@ -3114,8 +3109,8 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>6.9</v>
+      <c r="H44" s="3">
+        <v>8.1</v>
       </c>
       <c r="I44">
         <v>-22.75</v>
@@ -3158,8 +3153,8 @@
       <c r="G45">
         <v>2</v>
       </c>
-      <c r="H45">
-        <v>6.6</v>
+      <c r="H45" s="3">
+        <v>8.1</v>
       </c>
       <c r="I45">
         <v>0.05</v>
@@ -3202,8 +3197,8 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>6.6</v>
+      <c r="H46" s="3">
+        <v>8.1</v>
       </c>
       <c r="I46">
         <v>4.06</v>
@@ -3246,8 +3241,8 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>6.9</v>
+      <c r="H47" s="3">
+        <v>8.1</v>
       </c>
       <c r="I47">
         <v>0.83</v>
@@ -3290,7 +3285,7 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>-3.5</v>
       </c>
       <c r="I48">
@@ -3334,8 +3329,8 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>6.3</v>
+      <c r="H49" s="3">
+        <v>8.1</v>
       </c>
       <c r="I49">
         <v>1.1</v>
@@ -3378,8 +3373,8 @@
       <c r="G50">
         <v>2</v>
       </c>
-      <c r="H50">
-        <v>6</v>
+      <c r="H50" s="3">
+        <v>8.1</v>
       </c>
       <c r="I50">
         <v>-6.12</v>
@@ -3422,8 +3417,8 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>6.6</v>
+      <c r="H51" s="3">
+        <v>8.1</v>
       </c>
       <c r="I51">
         <v>-0.1</v>
@@ -3466,8 +3461,8 @@
       <c r="G52">
         <v>2</v>
       </c>
-      <c r="H52">
-        <v>5.7</v>
+      <c r="H52" s="3">
+        <v>8.1</v>
       </c>
       <c r="I52">
         <v>-3.52</v>
@@ -3510,8 +3505,8 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>6.6</v>
+      <c r="H53" s="3">
+        <v>8.1</v>
       </c>
       <c r="I53">
         <v>-7.02</v>
@@ -3554,8 +3549,8 @@
       <c r="G54">
         <v>2</v>
       </c>
-      <c r="H54">
-        <v>6.3</v>
+      <c r="H54" s="3">
+        <v>8.1</v>
       </c>
       <c r="I54">
         <v>0.83</v>
@@ -3598,8 +3593,8 @@
       <c r="G55">
         <v>3</v>
       </c>
-      <c r="H55">
-        <v>6</v>
+      <c r="H55" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I55">
         <v>-0.97</v>
@@ -3642,8 +3637,8 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>6.9</v>
+      <c r="H56" s="3">
+        <v>8.1</v>
       </c>
       <c r="I56">
         <v>-22.75</v>
@@ -3686,8 +3681,8 @@
       <c r="G57">
         <v>2</v>
       </c>
-      <c r="H57">
-        <v>6.6</v>
+      <c r="H57" s="3">
+        <v>8.1</v>
       </c>
       <c r="I57">
         <v>0.05</v>
@@ -3730,8 +3725,8 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>6.6</v>
+      <c r="H58" s="3">
+        <v>8.1</v>
       </c>
       <c r="I58">
         <v>4.06</v>
@@ -3774,8 +3769,8 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>6.9</v>
+      <c r="H59" s="3">
+        <v>8.1</v>
       </c>
       <c r="I59">
         <v>-8.21</v>
@@ -3818,7 +3813,7 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <v>-3.5</v>
       </c>
       <c r="I60">
@@ -3862,8 +3857,8 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>6.3</v>
+      <c r="H61" s="3">
+        <v>8.1</v>
       </c>
       <c r="I61">
         <v>1.1</v>
@@ -3906,8 +3901,8 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>6.9</v>
+      <c r="H62" s="3">
+        <v>8.1</v>
       </c>
       <c r="I62">
         <v>-22.75</v>
@@ -3950,8 +3945,8 @@
       <c r="G63">
         <v>2</v>
       </c>
-      <c r="H63">
-        <v>6.6</v>
+      <c r="H63" s="3">
+        <v>8.1</v>
       </c>
       <c r="I63">
         <v>0.05</v>
@@ -3994,8 +3989,8 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>6.6</v>
+      <c r="H64" s="3">
+        <v>8.1</v>
       </c>
       <c r="I64">
         <v>4.06</v>
@@ -4038,8 +4033,8 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>6.9</v>
+      <c r="H65" s="3">
+        <v>8.1</v>
       </c>
       <c r="I65">
         <v>0.83</v>
@@ -4082,7 +4077,7 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>-3.5</v>
       </c>
       <c r="I66">
@@ -4126,8 +4121,8 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>6.3</v>
+      <c r="H67" s="3">
+        <v>8.1</v>
       </c>
       <c r="I67">
         <v>1.1</v>
@@ -4170,8 +4165,8 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>6.3</v>
+      <c r="H68" s="3">
+        <v>8.1</v>
       </c>
       <c r="I68">
         <v>-6.35</v>
@@ -4214,7 +4209,7 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>-3.6</v>
       </c>
       <c r="I69">
@@ -4258,8 +4253,8 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>6.9</v>
+      <c r="H70" s="3">
+        <v>8.1</v>
       </c>
       <c r="I70">
         <v>2.3</v>
@@ -4302,8 +4297,8 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>6.6</v>
+      <c r="H71" s="3">
+        <v>8.1</v>
       </c>
       <c r="I71">
         <v>-14.24</v>
@@ -4346,8 +4341,8 @@
       <c r="G72">
         <v>2</v>
       </c>
-      <c r="H72">
-        <v>6.3</v>
+      <c r="H72" s="3">
+        <v>8.1</v>
       </c>
       <c r="I72">
         <v>-0.8</v>
@@ -4390,8 +4385,8 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>6</v>
+      <c r="H73" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I73">
         <v>-0.34</v>
@@ -4434,8 +4429,8 @@
       <c r="G74">
         <v>2</v>
       </c>
-      <c r="H74">
-        <v>6</v>
+      <c r="H74" s="3">
+        <v>8.1</v>
       </c>
       <c r="I74">
         <v>-6.12</v>
@@ -4478,8 +4473,8 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>6.6</v>
+      <c r="H75" s="3">
+        <v>8.1</v>
       </c>
       <c r="I75">
         <v>-0.1</v>
@@ -4522,8 +4517,8 @@
       <c r="G76">
         <v>2</v>
       </c>
-      <c r="H76">
-        <v>5.7</v>
+      <c r="H76" s="3">
+        <v>8.1</v>
       </c>
       <c r="I76">
         <v>-8.64</v>
@@ -4566,8 +4561,8 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>6.6</v>
+      <c r="H77" s="3">
+        <v>8.1</v>
       </c>
       <c r="I77">
         <v>-7.02</v>
@@ -4610,8 +4605,8 @@
       <c r="G78">
         <v>2</v>
       </c>
-      <c r="H78">
-        <v>6.3</v>
+      <c r="H78" s="3">
+        <v>8.1</v>
       </c>
       <c r="I78">
         <v>0.83</v>
@@ -4654,8 +4649,8 @@
       <c r="G79">
         <v>3</v>
       </c>
-      <c r="H79">
-        <v>6</v>
+      <c r="H79" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I79">
         <v>-0.97</v>
@@ -4698,8 +4693,8 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>6.9</v>
+      <c r="H80" s="3">
+        <v>8.1</v>
       </c>
       <c r="I80">
         <v>-22.75</v>
@@ -4742,8 +4737,8 @@
       <c r="G81">
         <v>2</v>
       </c>
-      <c r="H81">
-        <v>6.6</v>
+      <c r="H81" s="3">
+        <v>8.1</v>
       </c>
       <c r="I81">
         <v>0.05</v>
@@ -4786,8 +4781,8 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>6.6</v>
+      <c r="H82" s="3">
+        <v>8.1</v>
       </c>
       <c r="I82">
         <v>4.06</v>
@@ -4830,8 +4825,8 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>6.9</v>
+      <c r="H83" s="3">
+        <v>8.1</v>
       </c>
       <c r="I83">
         <v>-17.25</v>
@@ -4874,7 +4869,7 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="3">
         <v>-3.5</v>
       </c>
       <c r="I84">
@@ -4918,8 +4913,8 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85">
-        <v>6.3</v>
+      <c r="H85" s="3">
+        <v>8.1</v>
       </c>
       <c r="I85">
         <v>1.1</v>
@@ -4962,8 +4957,8 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>6.9</v>
+      <c r="H86" s="3">
+        <v>8.1</v>
       </c>
       <c r="I86">
         <v>-22.75</v>
@@ -5006,8 +5001,8 @@
       <c r="G87">
         <v>2</v>
       </c>
-      <c r="H87">
-        <v>6.6</v>
+      <c r="H87" s="3">
+        <v>8.1</v>
       </c>
       <c r="I87">
         <v>0.05</v>
@@ -5050,8 +5045,8 @@
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88">
-        <v>6.6</v>
+      <c r="H88" s="3">
+        <v>8.1</v>
       </c>
       <c r="I88">
         <v>4.06</v>
@@ -5094,8 +5089,8 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89">
-        <v>6.9</v>
+      <c r="H89" s="3">
+        <v>8.1</v>
       </c>
       <c r="I89">
         <v>-14.89</v>
@@ -5138,7 +5133,7 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="3">
         <v>-3.5</v>
       </c>
       <c r="I90">
@@ -5182,8 +5177,8 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91">
-        <v>6.3</v>
+      <c r="H91" s="3">
+        <v>8.1</v>
       </c>
       <c r="I91">
         <v>1.1</v>
@@ -5226,8 +5221,8 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>6.9</v>
+      <c r="H92" s="3">
+        <v>8.1</v>
       </c>
       <c r="I92">
         <v>-22.75</v>
@@ -5270,8 +5265,8 @@
       <c r="G93">
         <v>2</v>
       </c>
-      <c r="H93">
-        <v>6.6</v>
+      <c r="H93" s="3">
+        <v>8.1</v>
       </c>
       <c r="I93">
         <v>-0.91</v>
@@ -5314,8 +5309,8 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94">
-        <v>6.6</v>
+      <c r="H94" s="3">
+        <v>8.1</v>
       </c>
       <c r="I94">
         <v>4.06</v>
@@ -5358,8 +5353,8 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95">
-        <v>6.6</v>
+      <c r="H95" s="3">
+        <v>8.1</v>
       </c>
       <c r="I95">
         <v>-17.25</v>
@@ -5402,8 +5397,8 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96">
-        <v>6.9</v>
+      <c r="H96" s="3">
+        <v>8.1</v>
       </c>
       <c r="I96">
         <v>-3.52</v>
@@ -5446,8 +5441,8 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97">
-        <v>6.3</v>
+      <c r="H97" s="3">
+        <v>8.1</v>
       </c>
       <c r="I97">
         <v>1.1</v>
@@ -5490,8 +5485,8 @@
       <c r="G98">
         <v>2</v>
       </c>
-      <c r="H98">
-        <v>6</v>
+      <c r="H98" s="3">
+        <v>8.1</v>
       </c>
       <c r="I98">
         <v>-6.12</v>
@@ -5534,8 +5529,8 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99">
-        <v>6.6</v>
+      <c r="H99" s="3">
+        <v>8.1</v>
       </c>
       <c r="I99">
         <v>-0.1</v>
@@ -5578,8 +5573,8 @@
       <c r="G100">
         <v>2</v>
       </c>
-      <c r="H100">
-        <v>5.7</v>
+      <c r="H100" s="3">
+        <v>8.1</v>
       </c>
       <c r="I100">
         <v>-3.52</v>
@@ -5622,8 +5617,8 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101">
-        <v>6.6</v>
+      <c r="H101" s="3">
+        <v>8.1</v>
       </c>
       <c r="I101">
         <v>-7.02</v>
@@ -5666,8 +5661,8 @@
       <c r="G102">
         <v>2</v>
       </c>
-      <c r="H102">
-        <v>6.3</v>
+      <c r="H102" s="3">
+        <v>8.1</v>
       </c>
       <c r="I102">
         <v>0.83</v>
@@ -5710,8 +5705,8 @@
       <c r="G103">
         <v>3</v>
       </c>
-      <c r="H103">
-        <v>6</v>
+      <c r="H103" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I103">
         <v>-0.97</v>
@@ -5754,8 +5749,8 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104">
-        <v>6.9</v>
+      <c r="H104" s="3">
+        <v>8.1</v>
       </c>
       <c r="I104">
         <v>-22.75</v>
@@ -5798,8 +5793,8 @@
       <c r="G105">
         <v>2</v>
       </c>
-      <c r="H105">
-        <v>6.6</v>
+      <c r="H105" s="3">
+        <v>8.1</v>
       </c>
       <c r="I105">
         <v>0.05</v>
@@ -5842,8 +5837,8 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106">
-        <v>6.6</v>
+      <c r="H106" s="3">
+        <v>8.1</v>
       </c>
       <c r="I106">
         <v>4.06</v>
@@ -5886,8 +5881,8 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107">
-        <v>6.9</v>
+      <c r="H107" s="3">
+        <v>8.1</v>
       </c>
       <c r="I107">
         <v>-5.42</v>
@@ -5930,7 +5925,7 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="3">
         <v>-3.5</v>
       </c>
       <c r="I108">
@@ -5974,8 +5969,8 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109">
-        <v>6.3</v>
+      <c r="H109" s="3">
+        <v>8.1</v>
       </c>
       <c r="I109">
         <v>1.1</v>
@@ -6018,8 +6013,8 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>6.9</v>
+      <c r="H110" s="3">
+        <v>8.1</v>
       </c>
       <c r="I110">
         <v>-22.75</v>
@@ -6062,8 +6057,8 @@
       <c r="G111">
         <v>2</v>
       </c>
-      <c r="H111">
-        <v>6.6</v>
+      <c r="H111" s="3">
+        <v>8.1</v>
       </c>
       <c r="I111">
         <v>-0.91</v>
@@ -6106,8 +6101,8 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112">
-        <v>6.6</v>
+      <c r="H112" s="3">
+        <v>8.1</v>
       </c>
       <c r="I112">
         <v>4.06</v>
@@ -6150,8 +6145,8 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="H113">
-        <v>6.6</v>
+      <c r="H113" s="3">
+        <v>8.1</v>
       </c>
       <c r="I113">
         <v>-17.25</v>
@@ -6194,8 +6189,8 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114">
-        <v>6.9</v>
+      <c r="H114" s="3">
+        <v>8.1</v>
       </c>
       <c r="I114">
         <v>-3.52</v>
@@ -6238,8 +6233,8 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>6.3</v>
+      <c r="H115" s="3">
+        <v>8.1</v>
       </c>
       <c r="I115">
         <v>1.1</v>
@@ -6282,8 +6277,8 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116">
-        <v>6.9</v>
+      <c r="H116" s="3">
+        <v>8.1</v>
       </c>
       <c r="I116">
         <v>-1.69</v>
@@ -6326,8 +6321,8 @@
       <c r="G117">
         <v>2</v>
       </c>
-      <c r="H117">
-        <v>6.6</v>
+      <c r="H117" s="3">
+        <v>8.1</v>
       </c>
       <c r="I117">
         <v>0.05</v>
@@ -6370,8 +6365,8 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
-        <v>6.6</v>
+      <c r="H118" s="3">
+        <v>8.1</v>
       </c>
       <c r="I118">
         <v>4.06</v>
@@ -6414,8 +6409,8 @@
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119">
-        <v>6.9</v>
+      <c r="H119" s="3">
+        <v>8.1</v>
       </c>
       <c r="I119">
         <v>0.83</v>
@@ -6458,7 +6453,7 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="3">
         <v>-3.5</v>
       </c>
       <c r="I120">
@@ -6502,8 +6497,8 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="H121">
-        <v>6.3</v>
+      <c r="H121" s="3">
+        <v>8.1</v>
       </c>
       <c r="I121">
         <v>1.1</v>
@@ -6546,8 +6541,8 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="H122">
-        <v>6.3</v>
+      <c r="H122" s="3">
+        <v>8.1</v>
       </c>
       <c r="I122">
         <v>-6.35</v>
@@ -6590,7 +6585,7 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="3">
         <v>-3.6</v>
       </c>
       <c r="I123">
@@ -6634,8 +6629,8 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="H124">
-        <v>6.9</v>
+      <c r="H124" s="3">
+        <v>8.1</v>
       </c>
       <c r="I124">
         <v>2.3</v>
@@ -6678,8 +6673,8 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125">
-        <v>6.6</v>
+      <c r="H125" s="3">
+        <v>8.1</v>
       </c>
       <c r="I125">
         <v>-14.24</v>
@@ -6722,8 +6717,8 @@
       <c r="G126">
         <v>2</v>
       </c>
-      <c r="H126">
-        <v>6.3</v>
+      <c r="H126" s="3">
+        <v>8.1</v>
       </c>
       <c r="I126">
         <v>-0.8</v>
@@ -6766,8 +6761,8 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127">
-        <v>6</v>
+      <c r="H127" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I127">
         <v>-0.34</v>
@@ -6810,8 +6805,8 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128">
-        <v>6.3</v>
+      <c r="H128" s="3">
+        <v>8.1</v>
       </c>
       <c r="I128">
         <v>-6.35</v>
@@ -6854,7 +6849,7 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="3">
         <v>-3.6</v>
       </c>
       <c r="I129">
@@ -6898,8 +6893,8 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130">
-        <v>6.9</v>
+      <c r="H130" s="3">
+        <v>8.1</v>
       </c>
       <c r="I130">
         <v>2.3</v>
@@ -6942,8 +6937,8 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131">
-        <v>6.6</v>
+      <c r="H131" s="3">
+        <v>8.1</v>
       </c>
       <c r="I131">
         <v>-14.24</v>
@@ -6986,8 +6981,8 @@
       <c r="G132">
         <v>2</v>
       </c>
-      <c r="H132">
-        <v>6.3</v>
+      <c r="H132" s="3">
+        <v>8.1</v>
       </c>
       <c r="I132">
         <v>-0.8</v>
@@ -7030,8 +7025,8 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133">
-        <v>6</v>
+      <c r="H133" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I133">
         <v>-0.34</v>
@@ -7074,8 +7069,8 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="H134">
-        <v>6.9</v>
+      <c r="H134" s="3">
+        <v>8.1</v>
       </c>
       <c r="I134">
         <v>-22.75</v>
@@ -7118,8 +7113,8 @@
       <c r="G135">
         <v>2</v>
       </c>
-      <c r="H135">
-        <v>6.6</v>
+      <c r="H135" s="3">
+        <v>8.1</v>
       </c>
       <c r="I135">
         <v>0.05</v>
@@ -7162,8 +7157,8 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="H136">
-        <v>6.6</v>
+      <c r="H136" s="3">
+        <v>8.1</v>
       </c>
       <c r="I136">
         <v>4.06</v>
@@ -7206,8 +7201,8 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137">
-        <v>6.9</v>
+      <c r="H137" s="3">
+        <v>8.1</v>
       </c>
       <c r="I137">
         <v>-8.21</v>
@@ -7250,7 +7245,7 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="3">
         <v>-3.5</v>
       </c>
       <c r="I138">
@@ -7294,8 +7289,8 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="H139">
-        <v>6.3</v>
+      <c r="H139" s="3">
+        <v>8.1</v>
       </c>
       <c r="I139">
         <v>1.1</v>
@@ -7338,8 +7333,8 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140">
-        <v>6.9</v>
+      <c r="H140" s="3">
+        <v>8.1</v>
       </c>
       <c r="I140">
         <v>-22.75</v>
@@ -7382,8 +7377,8 @@
       <c r="G141">
         <v>2</v>
       </c>
-      <c r="H141">
-        <v>6.6</v>
+      <c r="H141" s="3">
+        <v>8.1</v>
       </c>
       <c r="I141">
         <v>0.05</v>
@@ -7426,8 +7421,8 @@
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142">
-        <v>6.6</v>
+      <c r="H142" s="3">
+        <v>8.1</v>
       </c>
       <c r="I142">
         <v>4.06</v>
@@ -7470,8 +7465,8 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143">
-        <v>6.9</v>
+      <c r="H143" s="3">
+        <v>8.1</v>
       </c>
       <c r="I143">
         <v>-5.42</v>
@@ -7514,7 +7509,7 @@
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="3">
         <v>-3.5</v>
       </c>
       <c r="I144">
@@ -7558,8 +7553,8 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145">
-        <v>6.3</v>
+      <c r="H145" s="3">
+        <v>8.1</v>
       </c>
       <c r="I145">
         <v>1.1</v>
@@ -7602,8 +7597,8 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146">
-        <v>6.9</v>
+      <c r="H146" s="3">
+        <v>8.1</v>
       </c>
       <c r="I146">
         <v>-22.75</v>
@@ -7646,8 +7641,8 @@
       <c r="G147">
         <v>2</v>
       </c>
-      <c r="H147">
-        <v>6.6</v>
+      <c r="H147" s="3">
+        <v>8.1</v>
       </c>
       <c r="I147">
         <v>0.05</v>
@@ -7690,8 +7685,8 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="H148">
-        <v>6.6</v>
+      <c r="H148" s="3">
+        <v>8.1</v>
       </c>
       <c r="I148">
         <v>4.06</v>
@@ -7734,8 +7729,8 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="H149">
-        <v>6.9</v>
+      <c r="H149" s="3">
+        <v>8.1</v>
       </c>
       <c r="I149">
         <v>-14.89</v>
@@ -7778,7 +7773,7 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="3">
         <v>-3.5</v>
       </c>
       <c r="I150">
@@ -7822,8 +7817,8 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="H151">
-        <v>6.3</v>
+      <c r="H151" s="3">
+        <v>8.1</v>
       </c>
       <c r="I151">
         <v>1.1</v>
@@ -7866,8 +7861,8 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="H152">
-        <v>6.9</v>
+      <c r="H152" s="3">
+        <v>8.1</v>
       </c>
       <c r="I152">
         <v>-22.75</v>
@@ -7910,8 +7905,8 @@
       <c r="G153">
         <v>2</v>
       </c>
-      <c r="H153">
-        <v>6.6</v>
+      <c r="H153" s="3">
+        <v>8.1</v>
       </c>
       <c r="I153">
         <v>0.05</v>
@@ -7954,8 +7949,8 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154">
-        <v>6.6</v>
+      <c r="H154" s="3">
+        <v>8.1</v>
       </c>
       <c r="I154">
         <v>4.06</v>
@@ -7998,8 +7993,8 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155">
-        <v>6.9</v>
+      <c r="H155" s="3">
+        <v>8.1</v>
       </c>
       <c r="I155">
         <v>0.83</v>
@@ -8042,7 +8037,7 @@
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="3">
         <v>-3.5</v>
       </c>
       <c r="I156">
@@ -8086,8 +8081,8 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157">
-        <v>6.3</v>
+      <c r="H157" s="3">
+        <v>8.1</v>
       </c>
       <c r="I157">
         <v>1.1</v>
@@ -8130,8 +8125,8 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="H158">
-        <v>6.9</v>
+      <c r="H158" s="3">
+        <v>8.1</v>
       </c>
       <c r="I158">
         <v>-22.75</v>
@@ -8174,8 +8169,8 @@
       <c r="G159">
         <v>2</v>
       </c>
-      <c r="H159">
-        <v>6.6</v>
+      <c r="H159" s="3">
+        <v>8.1</v>
       </c>
       <c r="I159">
         <v>0.05</v>
@@ -8218,8 +8213,8 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160">
-        <v>6.6</v>
+      <c r="H160" s="3">
+        <v>8.1</v>
       </c>
       <c r="I160">
         <v>4.06</v>
@@ -8262,8 +8257,8 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="H161">
-        <v>6.9</v>
+      <c r="H161" s="3">
+        <v>8.1</v>
       </c>
       <c r="I161">
         <v>-23.93</v>
@@ -8306,7 +8301,7 @@
       <c r="G162">
         <v>0</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="3">
         <v>-3.5</v>
       </c>
       <c r="I162">
@@ -8350,8 +8345,8 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="H163">
-        <v>6.3</v>
+      <c r="H163" s="3">
+        <v>8.1</v>
       </c>
       <c r="I163">
         <v>1.1</v>
@@ -8394,8 +8389,8 @@
       <c r="G164">
         <v>0</v>
       </c>
-      <c r="H164">
-        <v>6.9</v>
+      <c r="H164" s="3">
+        <v>8.1</v>
       </c>
       <c r="I164">
         <v>-22.75</v>
@@ -8438,8 +8433,8 @@
       <c r="G165">
         <v>2</v>
       </c>
-      <c r="H165">
-        <v>6.6</v>
+      <c r="H165" s="3">
+        <v>8.1</v>
       </c>
       <c r="I165">
         <v>0.05</v>
@@ -8482,8 +8477,8 @@
       <c r="G166">
         <v>0</v>
       </c>
-      <c r="H166">
-        <v>6.6</v>
+      <c r="H166" s="3">
+        <v>8.1</v>
       </c>
       <c r="I166">
         <v>4.06</v>
@@ -8526,8 +8521,8 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="H167">
-        <v>6.9</v>
+      <c r="H167" s="3">
+        <v>8.1</v>
       </c>
       <c r="I167">
         <v>-8.21</v>
@@ -8570,7 +8565,7 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="3">
         <v>-3.5</v>
       </c>
       <c r="I168">
@@ -8614,8 +8609,8 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="H169">
-        <v>6.3</v>
+      <c r="H169" s="3">
+        <v>8.1</v>
       </c>
       <c r="I169">
         <v>1.1</v>
@@ -8658,8 +8653,8 @@
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="H170">
-        <v>6.9</v>
+      <c r="H170" s="3">
+        <v>8.1</v>
       </c>
       <c r="I170">
         <v>-22.75</v>
@@ -8702,8 +8697,8 @@
       <c r="G171">
         <v>2</v>
       </c>
-      <c r="H171">
-        <v>6.6</v>
+      <c r="H171" s="3">
+        <v>8.1</v>
       </c>
       <c r="I171">
         <v>0.05</v>
@@ -8746,8 +8741,8 @@
       <c r="G172">
         <v>0</v>
       </c>
-      <c r="H172">
-        <v>6.6</v>
+      <c r="H172" s="3">
+        <v>8.1</v>
       </c>
       <c r="I172">
         <v>4.06</v>
@@ -8790,8 +8785,8 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="H173">
-        <v>6.9</v>
+      <c r="H173" s="3">
+        <v>8.1</v>
       </c>
       <c r="I173">
         <v>-11.47</v>
@@ -8834,7 +8829,7 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="3">
         <v>-3.5</v>
       </c>
       <c r="I174">
@@ -8878,8 +8873,8 @@
       <c r="G175">
         <v>0</v>
       </c>
-      <c r="H175">
-        <v>6.3</v>
+      <c r="H175" s="3">
+        <v>8.1</v>
       </c>
       <c r="I175">
         <v>1.1</v>
@@ -8922,8 +8917,8 @@
       <c r="G176">
         <v>2</v>
       </c>
-      <c r="H176">
-        <v>6</v>
+      <c r="H176" s="3">
+        <v>8.1</v>
       </c>
       <c r="I176">
         <v>-6.12</v>
@@ -8966,8 +8961,8 @@
       <c r="G177">
         <v>0</v>
       </c>
-      <c r="H177">
-        <v>6.6</v>
+      <c r="H177" s="3">
+        <v>8.1</v>
       </c>
       <c r="I177">
         <v>-0.1</v>
@@ -9010,8 +9005,8 @@
       <c r="G178">
         <v>2</v>
       </c>
-      <c r="H178">
-        <v>5.7</v>
+      <c r="H178" s="3">
+        <v>8.1</v>
       </c>
       <c r="I178">
         <v>-8.64</v>
@@ -9054,8 +9049,8 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="H179">
-        <v>6.6</v>
+      <c r="H179" s="3">
+        <v>8.1</v>
       </c>
       <c r="I179">
         <v>-7.02</v>
@@ -9098,8 +9093,8 @@
       <c r="G180">
         <v>2</v>
       </c>
-      <c r="H180">
-        <v>6.3</v>
+      <c r="H180" s="3">
+        <v>8.1</v>
       </c>
       <c r="I180">
         <v>0.83</v>
@@ -9142,8 +9137,8 @@
       <c r="G181">
         <v>3</v>
       </c>
-      <c r="H181">
-        <v>6</v>
+      <c r="H181" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I181">
         <v>-0.97</v>
@@ -9186,8 +9181,8 @@
       <c r="G182">
         <v>0</v>
       </c>
-      <c r="H182">
-        <v>6.9</v>
+      <c r="H182" s="3">
+        <v>8.1</v>
       </c>
       <c r="I182">
         <v>-22.75</v>
@@ -9230,8 +9225,8 @@
       <c r="G183">
         <v>2</v>
       </c>
-      <c r="H183">
-        <v>6.6</v>
+      <c r="H183" s="3">
+        <v>8.1</v>
       </c>
       <c r="I183">
         <v>0.05</v>
@@ -9274,8 +9269,8 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="H184">
-        <v>6.6</v>
+      <c r="H184" s="3">
+        <v>8.1</v>
       </c>
       <c r="I184">
         <v>4.06</v>
@@ -9318,8 +9313,8 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="H185">
-        <v>6.9</v>
+      <c r="H185" s="3">
+        <v>8.1</v>
       </c>
       <c r="I185">
         <v>-17.25</v>
@@ -9362,7 +9357,7 @@
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="3">
         <v>-3.5</v>
       </c>
       <c r="I186">
@@ -9406,8 +9401,8 @@
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="H187">
-        <v>6.3</v>
+      <c r="H187" s="3">
+        <v>8.1</v>
       </c>
       <c r="I187">
         <v>1.1</v>
@@ -9450,8 +9445,8 @@
       <c r="G188">
         <v>2</v>
       </c>
-      <c r="H188">
-        <v>6</v>
+      <c r="H188" s="3">
+        <v>8.1</v>
       </c>
       <c r="I188">
         <v>-6.12</v>
@@ -9494,8 +9489,8 @@
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="H189">
-        <v>6.6</v>
+      <c r="H189" s="3">
+        <v>8.1</v>
       </c>
       <c r="I189">
         <v>-0.1</v>
@@ -9538,8 +9533,8 @@
       <c r="G190">
         <v>2</v>
       </c>
-      <c r="H190">
-        <v>5.7</v>
+      <c r="H190" s="3">
+        <v>8.1</v>
       </c>
       <c r="I190">
         <v>-8.64</v>
@@ -9582,8 +9577,8 @@
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="H191">
-        <v>6.6</v>
+      <c r="H191" s="3">
+        <v>8.1</v>
       </c>
       <c r="I191">
         <v>-7.02</v>
@@ -9626,8 +9621,8 @@
       <c r="G192">
         <v>2</v>
       </c>
-      <c r="H192">
-        <v>6.3</v>
+      <c r="H192" s="3">
+        <v>8.1</v>
       </c>
       <c r="I192">
         <v>0.83</v>
@@ -9670,8 +9665,8 @@
       <c r="G193">
         <v>3</v>
       </c>
-      <c r="H193">
-        <v>6</v>
+      <c r="H193" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I193">
         <v>-0.97</v>
@@ -9714,8 +9709,8 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="H194">
-        <v>6.9</v>
+      <c r="H194" s="3">
+        <v>8.1</v>
       </c>
       <c r="I194">
         <v>-22.75</v>
@@ -9758,8 +9753,8 @@
       <c r="G195">
         <v>2</v>
       </c>
-      <c r="H195">
-        <v>6.6</v>
+      <c r="H195" s="3">
+        <v>8.1</v>
       </c>
       <c r="I195">
         <v>0.05</v>
@@ -9802,8 +9797,8 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="H196">
-        <v>6.6</v>
+      <c r="H196" s="3">
+        <v>8.1</v>
       </c>
       <c r="I196">
         <v>4.06</v>
@@ -9846,8 +9841,8 @@
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="H197">
-        <v>6.9</v>
+      <c r="H197" s="3">
+        <v>8.1</v>
       </c>
       <c r="I197">
         <v>-27.69</v>
@@ -9890,7 +9885,7 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="3">
         <v>-3.5</v>
       </c>
       <c r="I198">
@@ -9934,8 +9929,8 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="H199">
-        <v>6.3</v>
+      <c r="H199" s="3">
+        <v>8.1</v>
       </c>
       <c r="I199">
         <v>1.1</v>
@@ -9978,8 +9973,8 @@
       <c r="G200">
         <v>0</v>
       </c>
-      <c r="H200">
-        <v>6.9</v>
+      <c r="H200" s="3">
+        <v>8.1</v>
       </c>
       <c r="I200">
         <v>-22.75</v>
@@ -10022,8 +10017,8 @@
       <c r="G201">
         <v>2</v>
       </c>
-      <c r="H201">
-        <v>6.6</v>
+      <c r="H201" s="3">
+        <v>8.1</v>
       </c>
       <c r="I201">
         <v>0.05</v>
@@ -10066,8 +10061,8 @@
       <c r="G202">
         <v>0</v>
       </c>
-      <c r="H202">
-        <v>6.6</v>
+      <c r="H202" s="3">
+        <v>8.1</v>
       </c>
       <c r="I202">
         <v>4.06</v>
@@ -10110,8 +10105,8 @@
       <c r="G203">
         <v>0</v>
       </c>
-      <c r="H203">
-        <v>6.9</v>
+      <c r="H203" s="3">
+        <v>8.1</v>
       </c>
       <c r="I203">
         <v>-5.42</v>
@@ -10154,7 +10149,7 @@
       <c r="G204">
         <v>0</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="3">
         <v>-3.5</v>
       </c>
       <c r="I204">
@@ -10198,8 +10193,8 @@
       <c r="G205">
         <v>0</v>
       </c>
-      <c r="H205">
-        <v>6.3</v>
+      <c r="H205" s="3">
+        <v>8.1</v>
       </c>
       <c r="I205">
         <v>1.1</v>
@@ -10242,8 +10237,8 @@
       <c r="G206">
         <v>0</v>
       </c>
-      <c r="H206">
-        <v>6.9</v>
+      <c r="H206" s="3">
+        <v>8.1</v>
       </c>
       <c r="I206">
         <v>-3.75</v>
@@ -10286,8 +10281,8 @@
       <c r="G207">
         <v>0</v>
       </c>
-      <c r="H207">
-        <v>6.6</v>
+      <c r="H207" s="3">
+        <v>8.1</v>
       </c>
       <c r="I207">
         <v>0.45</v>
@@ -10330,8 +10325,8 @@
       <c r="G208">
         <v>0</v>
       </c>
-      <c r="H208">
-        <v>6.9</v>
+      <c r="H208" s="3">
+        <v>8.1</v>
       </c>
       <c r="I208">
         <v>2.43</v>
@@ -10374,8 +10369,8 @@
       <c r="G209">
         <v>0</v>
       </c>
-      <c r="H209">
-        <v>6.6</v>
+      <c r="H209" s="3">
+        <v>8.1</v>
       </c>
       <c r="I209">
         <v>-4.89</v>
@@ -10418,7 +10413,7 @@
       <c r="G210">
         <v>0</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="3">
         <v>-1.5</v>
       </c>
       <c r="I210">
@@ -10462,8 +10457,8 @@
       <c r="G211">
         <v>2</v>
       </c>
-      <c r="H211">
-        <v>6.6</v>
+      <c r="H211" s="3">
+        <v>8.1</v>
       </c>
       <c r="I211">
         <v>1.03</v>
@@ -10506,8 +10501,8 @@
       <c r="G212">
         <v>0</v>
       </c>
-      <c r="H212">
-        <v>6.3</v>
+      <c r="H212" s="3">
+        <v>8.1</v>
       </c>
       <c r="I212">
         <v>-6.35</v>
@@ -10550,7 +10545,7 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="3">
         <v>-2.1</v>
       </c>
       <c r="I213">
@@ -10594,7 +10589,7 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="3">
         <v>-3.6</v>
       </c>
       <c r="I214">
@@ -10638,8 +10633,8 @@
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="H215">
-        <v>6.6</v>
+      <c r="H215" s="3">
+        <v>8.1</v>
       </c>
       <c r="I215">
         <v>-14.24</v>
@@ -10682,8 +10677,8 @@
       <c r="G216">
         <v>2</v>
       </c>
-      <c r="H216">
-        <v>6.3</v>
+      <c r="H216" s="3">
+        <v>8.1</v>
       </c>
       <c r="I216">
         <v>-0.8</v>
@@ -10726,8 +10721,8 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="H217">
-        <v>6</v>
+      <c r="H217" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I217">
         <v>-0.34</v>
@@ -10770,8 +10765,8 @@
       <c r="G218">
         <v>0</v>
       </c>
-      <c r="H218">
-        <v>6.9</v>
+      <c r="H218" s="3">
+        <v>8.1</v>
       </c>
       <c r="I218">
         <v>-22.75</v>
@@ -10814,8 +10809,8 @@
       <c r="G219">
         <v>2</v>
       </c>
-      <c r="H219">
-        <v>6.6</v>
+      <c r="H219" s="3">
+        <v>8.1</v>
       </c>
       <c r="I219">
         <v>0.05</v>
@@ -10858,8 +10853,8 @@
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="H220">
-        <v>6.6</v>
+      <c r="H220" s="3">
+        <v>8.1</v>
       </c>
       <c r="I220">
         <v>4.06</v>
@@ -10902,8 +10897,8 @@
       <c r="G221">
         <v>0</v>
       </c>
-      <c r="H221">
-        <v>6.9</v>
+      <c r="H221" s="3">
+        <v>8.1</v>
       </c>
       <c r="I221">
         <v>-23.93</v>
@@ -10946,7 +10941,7 @@
       <c r="G222">
         <v>0</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="3">
         <v>-3.5</v>
       </c>
       <c r="I222">
@@ -10990,8 +10985,8 @@
       <c r="G223">
         <v>0</v>
       </c>
-      <c r="H223">
-        <v>6.3</v>
+      <c r="H223" s="3">
+        <v>8.1</v>
       </c>
       <c r="I223">
         <v>1.1</v>
@@ -11034,8 +11029,8 @@
       <c r="G224">
         <v>0</v>
       </c>
-      <c r="H224">
-        <v>6</v>
+      <c r="H224" s="3">
+        <v>8.41645027969696</v>
       </c>
       <c r="I224">
         <v>-3.36</v>
@@ -11078,8 +11073,8 @@
       <c r="G225">
         <v>0</v>
       </c>
-      <c r="H225">
-        <v>6.3</v>
+      <c r="H225" s="3">
+        <v>8.1</v>
       </c>
       <c r="I225">
         <v>-1.07</v>
@@ -11122,8 +11117,8 @@
       <c r="G226">
         <v>2</v>
       </c>
-      <c r="H226">
-        <v>6</v>
+      <c r="H226" s="3">
+        <v>8.1</v>
       </c>
       <c r="I226">
         <v>4.44</v>
@@ -11166,8 +11161,8 @@
       <c r="G227">
         <v>0</v>
       </c>
-      <c r="H227">
-        <v>7</v>
+      <c r="H227" s="3">
+        <v>9.36794746093222</v>
       </c>
       <c r="I227">
         <v>1.1</v>
@@ -11210,7 +11205,7 @@
       <c r="G228">
         <v>0</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="3">
         <v>-3.3</v>
       </c>
       <c r="I228">
@@ -11254,8 +11249,8 @@
       <c r="G229">
         <v>2</v>
       </c>
-      <c r="H229">
-        <v>5.7</v>
+      <c r="H229" s="3">
+        <v>8.1</v>
       </c>
       <c r="I229">
         <v>-0.06</v>
@@ -11298,8 +11293,8 @@
       <c r="G230">
         <v>0</v>
       </c>
-      <c r="H230">
-        <v>6.9</v>
+      <c r="H230" s="3">
+        <v>8.1</v>
       </c>
       <c r="I230">
         <v>-22.75</v>
@@ -11342,8 +11337,8 @@
       <c r="G231">
         <v>2</v>
       </c>
-      <c r="H231">
-        <v>6.6</v>
+      <c r="H231" s="3">
+        <v>8.1</v>
       </c>
       <c r="I231">
         <v>0.05</v>
@@ -11386,8 +11381,8 @@
       <c r="G232">
         <v>0</v>
       </c>
-      <c r="H232">
-        <v>6.6</v>
+      <c r="H232" s="3">
+        <v>8.1</v>
       </c>
       <c r="I232">
         <v>4.06</v>
@@ -11430,8 +11425,8 @@
       <c r="G233">
         <v>0</v>
       </c>
-      <c r="H233">
-        <v>6.9</v>
+      <c r="H233" s="3">
+        <v>8.1</v>
       </c>
       <c r="I233">
         <v>-14.89</v>
@@ -11474,7 +11469,7 @@
       <c r="G234">
         <v>0</v>
       </c>
-      <c r="H234">
+      <c r="H234" s="3">
         <v>-3.5</v>
       </c>
       <c r="I234">
@@ -11518,8 +11513,8 @@
       <c r="G235">
         <v>0</v>
       </c>
-      <c r="H235">
-        <v>6.3</v>
+      <c r="H235" s="3">
+        <v>8.1</v>
       </c>
       <c r="I235">
         <v>1.1</v>
@@ -11562,8 +11557,8 @@
       <c r="G236">
         <v>0</v>
       </c>
-      <c r="H236">
-        <v>6.9</v>
+      <c r="H236" s="3">
+        <v>9.30847351753492</v>
       </c>
       <c r="I236">
         <v>-10.04</v>
@@ -11606,8 +11601,8 @@
       <c r="G237">
         <v>0</v>
       </c>
-      <c r="H237">
-        <v>6.9</v>
+      <c r="H237" s="3">
+        <v>8.1</v>
       </c>
       <c r="I237">
         <v>2.46</v>
@@ -11650,8 +11645,8 @@
       <c r="G238">
         <v>2</v>
       </c>
-      <c r="H238">
-        <v>6.3</v>
+      <c r="H238" s="3">
+        <v>8.1</v>
       </c>
       <c r="I238">
         <v>-4.25</v>
@@ -11694,8 +11689,8 @@
       <c r="G239">
         <v>0</v>
       </c>
-      <c r="H239">
-        <v>6.6</v>
+      <c r="H239" s="3">
+        <v>8.1</v>
       </c>
       <c r="I239">
         <v>-1.53</v>
@@ -11738,7 +11733,7 @@
       <c r="G240">
         <v>0</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="3">
         <v>-3.3</v>
       </c>
       <c r="I240">
@@ -11782,8 +11777,8 @@
       <c r="G241">
         <v>2</v>
       </c>
-      <c r="H241">
-        <v>6.3</v>
+      <c r="H241" s="3">
+        <v>8.1</v>
       </c>
       <c r="I241">
         <v>-13.57</v>
@@ -11826,8 +11821,8 @@
       <c r="G242">
         <v>0</v>
       </c>
-      <c r="H242">
-        <v>6.9</v>
+      <c r="H242" s="3">
+        <v>8.1</v>
       </c>
       <c r="I242">
         <v>-22.75</v>
@@ -11870,8 +11865,8 @@
       <c r="G243">
         <v>2</v>
       </c>
-      <c r="H243">
-        <v>6.6</v>
+      <c r="H243" s="3">
+        <v>8.1</v>
       </c>
       <c r="I243">
         <v>0.05</v>
@@ -11914,8 +11909,8 @@
       <c r="G244">
         <v>0</v>
       </c>
-      <c r="H244">
-        <v>6.6</v>
+      <c r="H244" s="3">
+        <v>8.1</v>
       </c>
       <c r="I244">
         <v>4.06</v>
@@ -11958,8 +11953,8 @@
       <c r="G245">
         <v>0</v>
       </c>
-      <c r="H245">
-        <v>6.9</v>
+      <c r="H245" s="3">
+        <v>8.1</v>
       </c>
       <c r="I245">
         <v>-26.29</v>
@@ -12002,7 +11997,7 @@
       <c r="G246">
         <v>0</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="3">
         <v>-3.5</v>
       </c>
       <c r="I246">
@@ -12046,8 +12041,8 @@
       <c r="G247">
         <v>0</v>
       </c>
-      <c r="H247">
-        <v>6.3</v>
+      <c r="H247" s="3">
+        <v>8.1</v>
       </c>
       <c r="I247">
         <v>1.1</v>
@@ -12090,8 +12085,8 @@
       <c r="G248">
         <v>0</v>
       </c>
-      <c r="H248">
-        <v>6.9</v>
+      <c r="H248" s="3">
+        <v>8.1</v>
       </c>
       <c r="I248">
         <v>-1.69</v>
@@ -12134,8 +12129,8 @@
       <c r="G249">
         <v>2</v>
       </c>
-      <c r="H249">
-        <v>6.6</v>
+      <c r="H249" s="3">
+        <v>8.1</v>
       </c>
       <c r="I249">
         <v>0.05</v>
@@ -12178,8 +12173,8 @@
       <c r="G250">
         <v>0</v>
       </c>
-      <c r="H250">
-        <v>6.6</v>
+      <c r="H250" s="3">
+        <v>8.1</v>
       </c>
       <c r="I250">
         <v>4.06</v>
@@ -12222,8 +12217,8 @@
       <c r="G251">
         <v>0</v>
       </c>
-      <c r="H251">
-        <v>6.9</v>
+      <c r="H251" s="3">
+        <v>8.1</v>
       </c>
       <c r="I251">
         <v>0.83</v>
@@ -12266,7 +12261,7 @@
       <c r="G252">
         <v>0</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="3">
         <v>-3.5</v>
       </c>
       <c r="I252">
@@ -12310,8 +12305,8 @@
       <c r="G253">
         <v>0</v>
       </c>
-      <c r="H253">
-        <v>6.3</v>
+      <c r="H253" s="3">
+        <v>8.1</v>
       </c>
       <c r="I253">
         <v>1.1</v>
@@ -12354,8 +12349,8 @@
       <c r="G254">
         <v>0</v>
       </c>
-      <c r="H254">
-        <v>6.9</v>
+      <c r="H254" s="3">
+        <v>8.1</v>
       </c>
       <c r="I254">
         <v>-22.75</v>
@@ -12398,8 +12393,8 @@
       <c r="G255">
         <v>2</v>
       </c>
-      <c r="H255">
-        <v>6.6</v>
+      <c r="H255" s="3">
+        <v>8.1</v>
       </c>
       <c r="I255">
         <v>0.05</v>
@@ -12442,8 +12437,8 @@
       <c r="G256">
         <v>0</v>
       </c>
-      <c r="H256">
-        <v>6.6</v>
+      <c r="H256" s="3">
+        <v>8.1</v>
       </c>
       <c r="I256">
         <v>4.06</v>
@@ -12486,8 +12481,8 @@
       <c r="G257">
         <v>0</v>
       </c>
-      <c r="H257">
-        <v>6.9</v>
+      <c r="H257" s="3">
+        <v>8.1</v>
       </c>
       <c r="I257">
         <v>-17.25</v>
@@ -12530,7 +12525,7 @@
       <c r="G258">
         <v>0</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="3">
         <v>-3.5</v>
       </c>
       <c r="I258">
@@ -12574,8 +12569,8 @@
       <c r="G259">
         <v>0</v>
       </c>
-      <c r="H259">
-        <v>6.3</v>
+      <c r="H259" s="3">
+        <v>8.1</v>
       </c>
       <c r="I259">
         <v>1.1</v>
@@ -12618,8 +12613,8 @@
       <c r="G260">
         <v>0</v>
       </c>
-      <c r="H260">
-        <v>6.9</v>
+      <c r="H260" s="3">
+        <v>8.1</v>
       </c>
       <c r="I260">
         <v>-22.75</v>
@@ -12662,8 +12657,8 @@
       <c r="G261">
         <v>2</v>
       </c>
-      <c r="H261">
-        <v>6.6</v>
+      <c r="H261" s="3">
+        <v>8.1</v>
       </c>
       <c r="I261">
         <v>0.05</v>
@@ -12706,8 +12701,8 @@
       <c r="G262">
         <v>0</v>
       </c>
-      <c r="H262">
-        <v>6.6</v>
+      <c r="H262" s="3">
+        <v>8.1</v>
       </c>
       <c r="I262">
         <v>4.06</v>
@@ -12750,8 +12745,8 @@
       <c r="G263">
         <v>0</v>
       </c>
-      <c r="H263">
-        <v>6.9</v>
+      <c r="H263" s="3">
+        <v>8.1</v>
       </c>
       <c r="I263">
         <v>-26.29</v>
@@ -12794,7 +12789,7 @@
       <c r="G264">
         <v>0</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="3">
         <v>-3.5</v>
       </c>
       <c r="I264">
@@ -12838,8 +12833,8 @@
       <c r="G265">
         <v>0</v>
       </c>
-      <c r="H265">
-        <v>6.3</v>
+      <c r="H265" s="3">
+        <v>8.1</v>
       </c>
       <c r="I265">
         <v>1.1</v>
@@ -12882,8 +12877,8 @@
       <c r="G266">
         <v>0</v>
       </c>
-      <c r="H266">
-        <v>6.9</v>
+      <c r="H266" s="3">
+        <v>9.30847351753492</v>
       </c>
       <c r="I266">
         <v>-10.04</v>
@@ -12926,8 +12921,8 @@
       <c r="G267">
         <v>0</v>
       </c>
-      <c r="H267">
-        <v>6.9</v>
+      <c r="H267" s="3">
+        <v>8.1</v>
       </c>
       <c r="I267">
         <v>2.46</v>
@@ -12970,8 +12965,8 @@
       <c r="G268">
         <v>2</v>
       </c>
-      <c r="H268">
-        <v>6.3</v>
+      <c r="H268" s="3">
+        <v>8.1</v>
       </c>
       <c r="I268">
         <v>-4.25</v>
@@ -13014,8 +13009,8 @@
       <c r="G269">
         <v>0</v>
       </c>
-      <c r="H269">
-        <v>6.6</v>
+      <c r="H269" s="3">
+        <v>8.1</v>
       </c>
       <c r="I269">
         <v>-1.53</v>
@@ -13058,7 +13053,7 @@
       <c r="G270">
         <v>0</v>
       </c>
-      <c r="H270">
+      <c r="H270" s="3">
         <v>-3.3</v>
       </c>
       <c r="I270">
@@ -13102,8 +13097,8 @@
       <c r="G271">
         <v>2</v>
       </c>
-      <c r="H271">
-        <v>6.3</v>
+      <c r="H271" s="3">
+        <v>8.1</v>
       </c>
       <c r="I271">
         <v>-15.63</v>
